--- a/Финансовая_модель_Производство_изделий_из_пластика.xlsx
+++ b/Финансовая_модель_Производство_изделий_из_пластика.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="10125" windowHeight="7260" tabRatio="876" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="10125" windowHeight="7260" tabRatio="876" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Допущения" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="351">
   <si>
     <t>Ед. изм</t>
   </si>
@@ -1071,6 +1071,9 @@
   </si>
   <si>
     <t>Оптимистичный</t>
+  </si>
+  <si>
+    <t>3. Чистый долг/EBITDA</t>
   </si>
 </sst>
 </file>
@@ -1648,6 +1651,30 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1669,26 +1696,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1701,13 +1711,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5231,63 +5234,63 @@
         <v>1</v>
       </c>
       <c r="G57" s="13">
-        <f>G15*G29/(G40*G41)</f>
+        <f t="shared" ref="G57:U57" si="30">G15*G29/(G40*G41)</f>
         <v>0.27777777777777779</v>
       </c>
       <c r="H57" s="13">
-        <f>H15*H29/(H40*H41)</f>
+        <f t="shared" si="30"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="I57" s="13">
-        <f>I15*I29/(I40*I41)</f>
+        <f t="shared" si="30"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="J57" s="13">
-        <f>J15*J29/(J40*J41)</f>
+        <f t="shared" si="30"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="K57" s="13">
-        <f>K15*K29/(K40*K41)</f>
+        <f t="shared" si="30"/>
         <v>1.3888888888888888</v>
       </c>
       <c r="L57" s="13">
-        <f>L15*L29/(L40*L41)</f>
+        <f t="shared" si="30"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="M57" s="13">
-        <f>M15*M29/(M40*M41)</f>
+        <f t="shared" si="30"/>
         <v>1.9444444444444444</v>
       </c>
       <c r="N57" s="13">
-        <f>N15*N29/(N40*N41)</f>
+        <f t="shared" si="30"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="O57" s="13">
-        <f>O15*O29/(O40*O41)</f>
+        <f t="shared" si="30"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="P57" s="13">
-        <f>P15*P29/(P40*P41)</f>
+        <f t="shared" si="30"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="Q57" s="13">
-        <f>Q15*Q29/(Q40*Q41)</f>
+        <f t="shared" si="30"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="R57" s="13">
-        <f>R15*R29/(R40*R41)</f>
+        <f t="shared" si="30"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="S57" s="13">
-        <f>S15*S29/(S40*S41)</f>
+        <f t="shared" si="30"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="T57" s="13">
-        <f>T15*T29/(T40*T41)</f>
+        <f t="shared" si="30"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="U57" s="13">
-        <f>U15*U29/(U40*U41)</f>
+        <f t="shared" si="30"/>
         <v>2.2222222222222223</v>
       </c>
     </row>
@@ -5303,63 +5306,63 @@
         <v>0</v>
       </c>
       <c r="G58" s="13">
-        <f>G16*G30/(G40*G41)</f>
+        <f t="shared" ref="G58:U58" si="31">G16*G30/(G40*G41)</f>
         <v>0.41666666666666669</v>
       </c>
       <c r="H58" s="13">
-        <f>H16*H30/(H40*H41)</f>
+        <f t="shared" si="31"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="I58" s="13">
-        <f>I16*I30/(I40*I41)</f>
+        <f t="shared" si="31"/>
         <v>1.25</v>
       </c>
       <c r="J58" s="13">
-        <f>J16*J30/(J40*J41)</f>
+        <f t="shared" si="31"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="K58" s="13">
-        <f>K16*K30/(K40*K41)</f>
+        <f t="shared" si="31"/>
         <v>2.0833333333333335</v>
       </c>
       <c r="L58" s="13">
-        <f>L16*L30/(L40*L41)</f>
+        <f t="shared" si="31"/>
         <v>2.5</v>
       </c>
       <c r="M58" s="13">
-        <f>M16*M30/(M40*M41)</f>
+        <f t="shared" si="31"/>
         <v>2.9166666666666665</v>
       </c>
       <c r="N58" s="13">
-        <f>N16*N30/(N40*N41)</f>
+        <f t="shared" si="31"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="O58" s="13">
-        <f>O16*O30/(O40*O41)</f>
+        <f t="shared" si="31"/>
         <v>3.75</v>
       </c>
       <c r="P58" s="13">
-        <f>P16*P30/(P40*P41)</f>
+        <f t="shared" si="31"/>
         <v>3.75</v>
       </c>
       <c r="Q58" s="13">
-        <f>Q16*Q30/(Q40*Q41)</f>
+        <f t="shared" si="31"/>
         <v>3.75</v>
       </c>
       <c r="R58" s="13">
-        <f>R16*R30/(R40*R41)</f>
+        <f t="shared" si="31"/>
         <v>3.75</v>
       </c>
       <c r="S58" s="13">
-        <f>S16*S30/(S40*S41)</f>
+        <f t="shared" si="31"/>
         <v>3.75</v>
       </c>
       <c r="T58" s="13">
-        <f>T16*T30/(T40*T41)</f>
+        <f t="shared" si="31"/>
         <v>3.75</v>
       </c>
       <c r="U58" s="13">
-        <f>U16*U30/(U40*U41)</f>
+        <f t="shared" si="31"/>
         <v>3.75</v>
       </c>
     </row>
@@ -5383,59 +5386,59 @@
         <v>1</v>
       </c>
       <c r="H59" s="17">
-        <f t="shared" ref="H59:U59" si="30">ROUNDUP(H57+H58,0)</f>
+        <f t="shared" ref="H59:U59" si="32">ROUNDUP(H57+H58,0)</f>
         <v>2</v>
       </c>
       <c r="I59" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="J59" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="K59" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="L59" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="M59" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="N59" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="O59" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="P59" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="Q59" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="R59" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="S59" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="T59" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="U59" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
     </row>
@@ -5469,63 +5472,63 @@
         <v>2</v>
       </c>
       <c r="G61" s="13">
-        <f>G15*G27/(G40*G41)</f>
+        <f t="shared" ref="G61:U61" si="33">G15*G27/(G40*G41)</f>
         <v>1.3888888888888888</v>
       </c>
       <c r="H61" s="13">
-        <f>H15*H27/(H40*H41)</f>
+        <f t="shared" si="33"/>
         <v>2.7777777777777777</v>
       </c>
       <c r="I61" s="13">
-        <f>I15*I27/(I40*I41)</f>
+        <f t="shared" si="33"/>
         <v>4.166666666666667</v>
       </c>
       <c r="J61" s="13">
-        <f>J15*J27/(J40*J41)</f>
+        <f t="shared" si="33"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="K61" s="13">
-        <f>K15*K27/(K40*K41)</f>
+        <f t="shared" si="33"/>
         <v>6.9444444444444446</v>
       </c>
       <c r="L61" s="13">
-        <f>L15*L27/(L40*L41)</f>
+        <f t="shared" si="33"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="M61" s="13">
-        <f>M15*M27/(M40*M41)</f>
+        <f t="shared" si="33"/>
         <v>9.7222222222222214</v>
       </c>
       <c r="N61" s="13">
-        <f>N15*N27/(N40*N41)</f>
+        <f t="shared" si="33"/>
         <v>11.111111111111111</v>
       </c>
       <c r="O61" s="13">
-        <f>O15*O27/(O40*O41)</f>
+        <f t="shared" si="33"/>
         <v>11.111111111111111</v>
       </c>
       <c r="P61" s="13">
-        <f>P15*P27/(P40*P41)</f>
+        <f t="shared" si="33"/>
         <v>11.111111111111111</v>
       </c>
       <c r="Q61" s="13">
-        <f>Q15*Q27/(Q40*Q41)</f>
+        <f t="shared" si="33"/>
         <v>11.111111111111111</v>
       </c>
       <c r="R61" s="13">
-        <f>R15*R27/(R40*R41)</f>
+        <f t="shared" si="33"/>
         <v>11.111111111111111</v>
       </c>
       <c r="S61" s="13">
-        <f>S15*S27/(S40*S41)</f>
+        <f t="shared" si="33"/>
         <v>11.111111111111111</v>
       </c>
       <c r="T61" s="13">
-        <f>T15*T27/(T40*T41)</f>
+        <f t="shared" si="33"/>
         <v>11.111111111111111</v>
       </c>
       <c r="U61" s="13">
-        <f>U15*U27/(U40*U41)</f>
+        <f t="shared" si="33"/>
         <v>11.111111111111111</v>
       </c>
     </row>
@@ -5541,63 +5544,63 @@
         <v>0</v>
       </c>
       <c r="G62" s="13">
-        <f>G16*G28/(G40*G41)</f>
+        <f t="shared" ref="G62:U62" si="34">G16*G28/(G40*G41)</f>
         <v>0.34722222222222221</v>
       </c>
       <c r="H62" s="13">
-        <f>H16*H28/(H40*H41)</f>
+        <f t="shared" si="34"/>
         <v>0.69444444444444442</v>
       </c>
       <c r="I62" s="13">
-        <f>I16*I28/(I40*I41)</f>
+        <f t="shared" si="34"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="J62" s="13">
-        <f>J16*J28/(J40*J41)</f>
+        <f t="shared" si="34"/>
         <v>1.3888888888888888</v>
       </c>
       <c r="K62" s="13">
-        <f>K16*K28/(K40*K41)</f>
+        <f t="shared" si="34"/>
         <v>1.7361111111111112</v>
       </c>
       <c r="L62" s="13">
-        <f>L16*L28/(L40*L41)</f>
+        <f t="shared" si="34"/>
         <v>2.0833333333333335</v>
       </c>
       <c r="M62" s="13">
-        <f>M16*M28/(M40*M41)</f>
+        <f t="shared" si="34"/>
         <v>2.4305555555555554</v>
       </c>
       <c r="N62" s="13">
-        <f>N16*N28/(N40*N41)</f>
+        <f t="shared" si="34"/>
         <v>2.7777777777777777</v>
       </c>
       <c r="O62" s="13">
-        <f>O16*O28/(O40*O41)</f>
+        <f t="shared" si="34"/>
         <v>3.125</v>
       </c>
       <c r="P62" s="13">
-        <f>P16*P28/(P40*P41)</f>
+        <f t="shared" si="34"/>
         <v>3.125</v>
       </c>
       <c r="Q62" s="13">
-        <f>Q16*Q28/(Q40*Q41)</f>
+        <f t="shared" si="34"/>
         <v>3.125</v>
       </c>
       <c r="R62" s="13">
-        <f>R16*R28/(R40*R41)</f>
+        <f t="shared" si="34"/>
         <v>3.125</v>
       </c>
       <c r="S62" s="13">
-        <f>S16*S28/(S40*S41)</f>
+        <f t="shared" si="34"/>
         <v>3.125</v>
       </c>
       <c r="T62" s="13">
-        <f>T16*T28/(T40*T41)</f>
+        <f t="shared" si="34"/>
         <v>3.125</v>
       </c>
       <c r="U62" s="13">
-        <f>U16*U28/(U40*U41)</f>
+        <f t="shared" si="34"/>
         <v>3.125</v>
       </c>
     </row>
@@ -5620,59 +5623,59 @@
         <v>2</v>
       </c>
       <c r="H63" s="17">
-        <f t="shared" ref="H63:U63" si="31">ROUNDUP(H61+H62,0)</f>
+        <f t="shared" ref="H63:U63" si="35">ROUNDUP(H61+H62,0)</f>
         <v>4</v>
       </c>
       <c r="I63" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
       <c r="J63" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="K63" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>9</v>
       </c>
       <c r="L63" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>11</v>
       </c>
       <c r="M63" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>13</v>
       </c>
       <c r="N63" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="O63" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="P63" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="Q63" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="R63" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="S63" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="T63" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="U63" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
     </row>
@@ -5696,63 +5699,63 @@
         <v>7</v>
       </c>
       <c r="G66" s="4">
-        <f t="shared" ref="G66:U66" si="32">F66</f>
+        <f t="shared" ref="G66:U66" si="36">F66</f>
         <v>7</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="I66" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="J66" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="K66" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="L66" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="M66" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="N66" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="O66" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="P66" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="Q66" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="R66" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S66" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="T66" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="U66" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
     </row>
@@ -5767,67 +5770,67 @@
         <v>5</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" ref="F67:U68" si="33">E67</f>
+        <f t="shared" ref="F67:U68" si="37">E67</f>
         <v>5</v>
       </c>
       <c r="G67" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="I67" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="J67" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="K67" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="L67" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="M67" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="O67" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="P67" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="Q67" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="R67" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="S67" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="T67" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="U67" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
     </row>
@@ -5842,67 +5845,67 @@
         <v>15</v>
       </c>
       <c r="F68" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>15</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>15</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>15</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>15</v>
       </c>
       <c r="J68" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>15</v>
       </c>
       <c r="K68" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>15</v>
       </c>
       <c r="L68" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>15</v>
       </c>
       <c r="M68" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>15</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>15</v>
       </c>
       <c r="O68" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>15</v>
       </c>
       <c r="P68" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>15</v>
       </c>
       <c r="Q68" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>15</v>
       </c>
       <c r="R68" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>15</v>
       </c>
       <c r="S68" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>15</v>
       </c>
       <c r="T68" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>15</v>
       </c>
       <c r="U68" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>15</v>
       </c>
     </row>
@@ -5968,63 +5971,63 @@
         <v>0.2</v>
       </c>
       <c r="G76" s="7">
-        <f t="shared" ref="G76:U76" si="34">F76</f>
+        <f t="shared" ref="G76:U76" si="38">F76</f>
         <v>0.2</v>
       </c>
       <c r="H76" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.2</v>
       </c>
       <c r="I76" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.2</v>
       </c>
       <c r="J76" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.2</v>
       </c>
       <c r="K76" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.2</v>
       </c>
       <c r="L76" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.2</v>
       </c>
       <c r="M76" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.2</v>
       </c>
       <c r="N76" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.2</v>
       </c>
       <c r="O76" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.2</v>
       </c>
       <c r="P76" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.2</v>
       </c>
       <c r="Q76" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.2</v>
       </c>
       <c r="R76" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.2</v>
       </c>
       <c r="S76" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.2</v>
       </c>
       <c r="T76" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.2</v>
       </c>
       <c r="U76" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.2</v>
       </c>
     </row>
@@ -6043,63 +6046,63 @@
         <v>0.2</v>
       </c>
       <c r="G77" s="7">
-        <f t="shared" ref="G77:U77" si="35">F77</f>
+        <f t="shared" ref="G77:U77" si="39">F77</f>
         <v>0.2</v>
       </c>
       <c r="H77" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.2</v>
       </c>
       <c r="I77" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.2</v>
       </c>
       <c r="J77" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.2</v>
       </c>
       <c r="K77" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.2</v>
       </c>
       <c r="L77" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.2</v>
       </c>
       <c r="M77" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.2</v>
       </c>
       <c r="N77" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.2</v>
       </c>
       <c r="O77" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.2</v>
       </c>
       <c r="P77" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.2</v>
       </c>
       <c r="Q77" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.2</v>
       </c>
       <c r="R77" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.2</v>
       </c>
       <c r="S77" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.2</v>
       </c>
       <c r="T77" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.2</v>
       </c>
       <c r="U77" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.2</v>
       </c>
     </row>
@@ -6168,55 +6171,55 @@
         <v>11.137795340391495</v>
       </c>
       <c r="H84" s="11">
-        <f t="shared" ref="H84:T84" si="36">G84*(1+$E$83)-$E$85</f>
+        <f t="shared" ref="H84:T84" si="40">G84*(1+$E$83)-$E$85</f>
         <v>10.38492508176631</v>
       </c>
       <c r="I84" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>9.616056330145339</v>
       </c>
       <c r="J84" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>8.8308491175524235</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>8.0289562516919073</v>
       </c>
       <c r="L84" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>7.210023162431856</v>
       </c>
       <c r="M84" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>6.3736877450250287</v>
       </c>
       <c r="N84" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>5.5195801999983063</v>
       </c>
       <c r="O84" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4.6473228696397655</v>
       </c>
       <c r="P84" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3.756530071011106</v>
       </c>
       <c r="Q84" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>2.8468079254115874</v>
       </c>
       <c r="R84" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1.917754184218079</v>
       </c>
       <c r="S84" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.96895805102420851</v>
       </c>
       <c r="T84" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-3.1752378504279477E-14</v>
       </c>
       <c r="U84" s="4">
@@ -6465,7 +6468,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C103">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13341,9 +13344,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB54" sqref="AB54"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16566,7 +16569,7 @@
     </row>
     <row r="57" spans="1:21">
       <c r="A57" t="s">
-        <v>257</v>
+        <v>350</v>
       </c>
       <c r="B57" t="s">
         <v>128</v>
@@ -16650,7 +16653,7 @@
         <v>-5.6200830730471329</v>
       </c>
       <c r="I58" s="13">
-        <f t="shared" si="20"/>
+        <f>I9/-I10</f>
         <v>-1.2372814262630993</v>
       </c>
       <c r="J58" s="13">
@@ -17025,7 +17028,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E51:U51">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17039,7 +17042,7 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
@@ -18743,7 +18746,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E50:I50">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21008,7 +21011,7 @@
         <v>79396.398707107888</v>
       </c>
       <c r="D4" s="18">
-        <f t="dataTable" ref="D4:N4" dt2D="0" dtr="1" r1="C3" ca="1"/>
+        <f t="dataTable" ref="D4:N4" dt2D="0" dtr="1" r1="C3"/>
         <v>-113593.81300009262</v>
       </c>
       <c r="E4" s="18">
@@ -21121,7 +21124,7 @@
         <v>79396.398707107888</v>
       </c>
       <c r="D7" s="18">
-        <f t="dataTable" ref="D7:P7" dt2D="0" dtr="1" r1="C6"/>
+        <f t="dataTable" ref="D7:P7" dt2D="0" dtr="1" r1="C6" ca="1"/>
         <v>47390.42836473808</v>
       </c>
       <c r="E7" s="18">
@@ -21876,14 +21879,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E15:Q25">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>$C$28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>$C$29</formula>
       <formula>$C$28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>$C$30</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21896,8 +21899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
